--- a/3D_Boids_Render/recoverFromAvoidance.xlsx
+++ b/3D_Boids_Render/recoverFromAvoidance.xlsx
@@ -3991,13 +3991,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C2" s="0">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="D2" s="0">
-        <v>486</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3">
@@ -4008,38 +4008,38 @@
         <v>175</v>
       </c>
       <c r="C3" s="0">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D3" s="0">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="C4" s="0">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D4" s="0">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="C5" s="0">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D5" s="0">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6">
@@ -4047,41 +4047,41 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C6" s="0">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D6" s="0">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>335</v>
+        <v>203</v>
       </c>
       <c r="C7" s="0">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D7" s="0">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="0">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="C8" s="0">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="D8" s="0">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9">
@@ -4089,13 +4089,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>283</v>
+        <v>515</v>
       </c>
       <c r="C9" s="0">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D9" s="0">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10">
@@ -4103,13 +4103,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>515</v>
+        <v>120</v>
       </c>
       <c r="C10" s="0">
-        <v>550</v>
+        <v>602</v>
       </c>
       <c r="D10" s="0">
-        <v>552</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11">
@@ -4117,27 +4117,27 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>319</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="D11" s="0">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" s="0">
-        <v>489</v>
+        <v>383</v>
       </c>
       <c r="C12" s="0">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="D12" s="0">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13">
@@ -4145,13 +4145,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>120</v>
+        <v>467</v>
       </c>
       <c r="C13" s="0">
-        <v>603</v>
+        <v>625</v>
       </c>
       <c r="D13" s="0">
-        <v>605</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14">
@@ -4159,41 +4159,41 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="D14" s="0">
-        <v>607</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B15" s="0">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="C15" s="0">
-        <v>609</v>
+        <v>645</v>
       </c>
       <c r="D15" s="0">
-        <v>611</v>
+        <v>650</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>383</v>
+        <v>192</v>
       </c>
       <c r="C16" s="0">
-        <v>607</v>
+        <v>672</v>
       </c>
       <c r="D16" s="0">
-        <v>611</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17">
@@ -4201,13 +4201,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>273</v>
+        <v>200</v>
       </c>
       <c r="C17" s="0">
-        <v>615</v>
+        <v>713</v>
       </c>
       <c r="D17" s="0">
-        <v>617</v>
+        <v>715</v>
       </c>
     </row>
     <row r="18">
@@ -4215,13 +4215,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="C18" s="0">
-        <v>632</v>
+        <v>721</v>
       </c>
       <c r="D18" s="0">
-        <v>634</v>
+        <v>723</v>
       </c>
     </row>
     <row r="19">
@@ -4229,13 +4229,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>479</v>
+        <v>392</v>
       </c>
       <c r="C19" s="0">
-        <v>633</v>
+        <v>724</v>
       </c>
       <c r="D19" s="0">
-        <v>635</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20">
@@ -4243,13 +4243,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>533</v>
+        <v>412</v>
       </c>
       <c r="C20" s="0">
-        <v>633</v>
+        <v>734</v>
       </c>
       <c r="D20" s="0">
-        <v>635</v>
+        <v>736</v>
       </c>
     </row>
     <row r="21">
@@ -4257,13 +4257,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>128</v>
+        <v>736</v>
       </c>
       <c r="C21" s="0">
-        <v>634</v>
+        <v>735</v>
       </c>
       <c r="D21" s="0">
-        <v>636</v>
+        <v>737</v>
       </c>
     </row>
     <row r="22">
@@ -4271,27 +4271,27 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>206</v>
+        <v>388</v>
       </c>
       <c r="C22" s="0">
-        <v>647</v>
+        <v>771</v>
       </c>
       <c r="D22" s="0">
-        <v>649</v>
+        <v>773</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" s="0">
-        <v>260</v>
+        <v>776</v>
       </c>
       <c r="C23" s="0">
-        <v>645</v>
+        <v>782</v>
       </c>
       <c r="D23" s="0">
-        <v>650</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24">
@@ -4299,27 +4299,27 @@
         <v>1</v>
       </c>
       <c r="B24" s="0">
-        <v>156</v>
+        <v>372</v>
       </c>
       <c r="C24" s="0">
-        <v>652</v>
+        <v>785</v>
       </c>
       <c r="D24" s="0">
-        <v>654</v>
+        <v>787</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>281</v>
+        <v>714</v>
       </c>
       <c r="C25" s="0">
-        <v>665</v>
+        <v>865</v>
       </c>
       <c r="D25" s="0">
-        <v>667</v>
+        <v>868</v>
       </c>
     </row>
     <row r="26">
@@ -4327,13 +4327,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="0">
-        <v>204</v>
+        <v>816</v>
       </c>
       <c r="C26" s="0">
-        <v>672</v>
+        <v>1098</v>
       </c>
       <c r="D26" s="0">
-        <v>674</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="27">
@@ -4341,13 +4341,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="0">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="C27" s="0">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="D27" s="0">
-        <v>675</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -4355,13 +4355,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="0">
-        <v>300</v>
+        <v>137</v>
       </c>
       <c r="C28" s="0">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="D28" s="0">
-        <v>687</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -4369,13 +4369,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="0">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="C29" s="0">
-        <v>699</v>
+        <v>0</v>
       </c>
       <c r="D29" s="0">
-        <v>701</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -4383,13 +4383,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="0">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="C30" s="0">
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>709</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -4397,13 +4397,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="0">
-        <v>200</v>
+        <v>755</v>
       </c>
       <c r="C31" s="0">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="D31" s="0">
-        <v>716</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -4411,13 +4411,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="0">
-        <v>363</v>
+        <v>817</v>
       </c>
       <c r="C32" s="0">
-        <v>716</v>
+        <v>0</v>
       </c>
       <c r="D32" s="0">
-        <v>718</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -4425,13 +4425,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="0">
-        <v>296</v>
+        <v>883</v>
       </c>
       <c r="C33" s="0">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="D33" s="0">
-        <v>724</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -4439,13 +4439,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="0">
-        <v>392</v>
+        <v>891</v>
       </c>
       <c r="C34" s="0">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="D34" s="0">
-        <v>727</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -4453,41 +4453,41 @@
         <v>1</v>
       </c>
       <c r="B35" s="0">
-        <v>412</v>
+        <v>915</v>
       </c>
       <c r="C35" s="0">
-        <v>736</v>
+        <v>0</v>
       </c>
       <c r="D35" s="0">
-        <v>738</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36" s="0">
-        <v>545</v>
+        <v>211</v>
       </c>
       <c r="C36" s="0">
-        <v>736</v>
+        <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>738</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>736</v>
+        <v>647</v>
       </c>
       <c r="C37" s="0">
-        <v>736</v>
+        <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>738</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -4495,13 +4495,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="0">
-        <v>352</v>
+        <v>743</v>
       </c>
       <c r="C38" s="0">
-        <v>748</v>
+        <v>4</v>
       </c>
       <c r="D38" s="0">
-        <v>750</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -4509,13 +4509,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="0">
-        <v>371</v>
+        <v>211</v>
       </c>
       <c r="C39" s="0">
-        <v>757</v>
+        <v>6</v>
       </c>
       <c r="D39" s="0">
-        <v>759</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -4523,27 +4523,27 @@
         <v>1</v>
       </c>
       <c r="B40" s="0">
-        <v>995</v>
+        <v>749</v>
       </c>
       <c r="C40" s="0">
-        <v>758</v>
+        <v>6</v>
       </c>
       <c r="D40" s="0">
-        <v>760</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" s="0">
-        <v>320</v>
+        <v>696</v>
       </c>
       <c r="C41" s="0">
-        <v>768</v>
+        <v>6</v>
       </c>
       <c r="D41" s="0">
-        <v>770</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -4551,13 +4551,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="0">
-        <v>776</v>
+        <v>879</v>
       </c>
       <c r="C42" s="0">
-        <v>783</v>
+        <v>7</v>
       </c>
       <c r="D42" s="0">
-        <v>785</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -4565,83 +4565,83 @@
         <v>1</v>
       </c>
       <c r="B43" s="0">
-        <v>684</v>
+        <v>726</v>
       </c>
       <c r="C43" s="0">
-        <v>784</v>
+        <v>8</v>
       </c>
       <c r="D43" s="0">
-        <v>786</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B44" s="0">
-        <v>372</v>
+        <v>926</v>
       </c>
       <c r="C44" s="0">
-        <v>787</v>
+        <v>4</v>
       </c>
       <c r="D44" s="0">
-        <v>789</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" s="0">
-        <v>724</v>
+        <v>918</v>
       </c>
       <c r="C45" s="0">
-        <v>798</v>
+        <v>9</v>
       </c>
       <c r="D45" s="0">
-        <v>800</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46" s="0">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C46" s="0">
-        <v>798</v>
+        <v>9</v>
       </c>
       <c r="D46" s="0">
-        <v>800</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B47" s="0">
-        <v>320</v>
+        <v>700</v>
       </c>
       <c r="C47" s="0">
-        <v>810</v>
+        <v>11</v>
       </c>
       <c r="D47" s="0">
-        <v>812</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" s="0">
-        <v>404</v>
+        <v>702</v>
       </c>
       <c r="C48" s="0">
-        <v>810</v>
+        <v>12</v>
       </c>
       <c r="D48" s="0">
-        <v>812</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -4649,41 +4649,41 @@
         <v>1</v>
       </c>
       <c r="B49" s="0">
-        <v>755</v>
+        <v>841</v>
       </c>
       <c r="C49" s="0">
-        <v>816</v>
+        <v>13</v>
       </c>
       <c r="D49" s="0">
-        <v>818</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B50" s="0">
-        <v>775</v>
+        <v>124</v>
       </c>
       <c r="C50" s="0">
-        <v>818</v>
+        <v>12</v>
       </c>
       <c r="D50" s="0">
-        <v>820</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" s="0">
-        <v>788</v>
+        <v>259</v>
       </c>
       <c r="C51" s="0">
-        <v>824</v>
+        <v>13</v>
       </c>
       <c r="D51" s="0">
-        <v>826</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -4691,13 +4691,13 @@
         <v>1</v>
       </c>
       <c r="B52" s="0">
-        <v>847</v>
+        <v>379</v>
       </c>
       <c r="C52" s="0">
-        <v>859</v>
+        <v>14</v>
       </c>
       <c r="D52" s="0">
-        <v>861</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -4705,27 +4705,27 @@
         <v>2</v>
       </c>
       <c r="B53" s="0">
-        <v>714</v>
+        <v>124</v>
       </c>
       <c r="C53" s="0">
-        <v>865</v>
+        <v>16</v>
       </c>
       <c r="D53" s="0">
-        <v>868</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B54" s="0">
-        <v>863</v>
+        <v>793</v>
       </c>
       <c r="C54" s="0">
-        <v>875</v>
+        <v>12</v>
       </c>
       <c r="D54" s="0">
-        <v>877</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -4733,41 +4733,41 @@
         <v>1</v>
       </c>
       <c r="B55" s="0">
-        <v>979</v>
+        <v>124</v>
       </c>
       <c r="C55" s="0">
-        <v>965</v>
+        <v>19</v>
       </c>
       <c r="D55" s="0">
-        <v>967</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" s="0">
-        <v>833</v>
+        <v>170</v>
       </c>
       <c r="C56" s="0">
-        <v>993</v>
+        <v>18</v>
       </c>
       <c r="D56" s="0">
-        <v>995</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B57" s="0">
-        <v>941</v>
+        <v>144</v>
       </c>
       <c r="C57" s="0">
-        <v>1051</v>
+        <v>18</v>
       </c>
       <c r="D57" s="0">
-        <v>1053</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
@@ -4775,13 +4775,13 @@
         <v>1</v>
       </c>
       <c r="B58" s="0">
-        <v>816</v>
+        <v>124</v>
       </c>
       <c r="C58" s="0">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="D58" s="0">
-        <v>1096</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
@@ -4789,13 +4789,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="0">
-        <v>978</v>
+        <v>135</v>
       </c>
       <c r="C59" s="0">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="D59" s="0">
-        <v>1096</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
@@ -4803,55 +4803,55 @@
         <v>1</v>
       </c>
       <c r="B60" s="0">
-        <v>816</v>
+        <v>124</v>
       </c>
       <c r="C60" s="0">
-        <v>1101</v>
+        <v>23</v>
       </c>
       <c r="D60" s="0">
-        <v>1103</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B61" s="0">
-        <v>968</v>
+        <v>165</v>
       </c>
       <c r="C61" s="0">
-        <v>1110</v>
+        <v>21</v>
       </c>
       <c r="D61" s="0">
-        <v>1112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B62" s="0">
-        <v>97</v>
+        <v>476</v>
       </c>
       <c r="C62" s="0">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D62" s="0">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B63" s="0">
-        <v>137</v>
+        <v>820</v>
       </c>
       <c r="C63" s="0">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D63" s="0">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
@@ -4859,13 +4859,13 @@
         <v>1</v>
       </c>
       <c r="B64" s="0">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="C64" s="0">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D64" s="0">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
@@ -4873,13 +4873,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="0">
-        <v>153</v>
+        <v>694</v>
       </c>
       <c r="C65" s="0">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D65" s="0">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
@@ -4887,13 +4887,13 @@
         <v>1</v>
       </c>
       <c r="B66" s="0">
-        <v>192</v>
+        <v>724</v>
       </c>
       <c r="C66" s="0">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D66" s="0">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
@@ -4901,27 +4901,27 @@
         <v>1</v>
       </c>
       <c r="B67" s="0">
-        <v>817</v>
+        <v>398</v>
       </c>
       <c r="C67" s="0">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D67" s="0">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68" s="0">
-        <v>883</v>
+        <v>219</v>
       </c>
       <c r="C68" s="0">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D68" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
@@ -4929,13 +4929,13 @@
         <v>1</v>
       </c>
       <c r="B69" s="0">
-        <v>889</v>
+        <v>312</v>
       </c>
       <c r="C69" s="0">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D69" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
@@ -4943,13 +4943,13 @@
         <v>1</v>
       </c>
       <c r="B70" s="0">
-        <v>891</v>
+        <v>724</v>
       </c>
       <c r="C70" s="0">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D70" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
@@ -4957,41 +4957,41 @@
         <v>1</v>
       </c>
       <c r="B71" s="0">
-        <v>915</v>
+        <v>836</v>
       </c>
       <c r="C71" s="0">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D71" s="0">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B72" s="0">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C72" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D72" s="0">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" s="0">
-        <v>647</v>
+        <v>312</v>
       </c>
       <c r="C73" s="0">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D73" s="0">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
@@ -4999,27 +4999,27 @@
         <v>1</v>
       </c>
       <c r="B74" s="0">
-        <v>743</v>
+        <v>836</v>
       </c>
       <c r="C74" s="0">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D74" s="0">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B75" s="0">
-        <v>991</v>
+        <v>724</v>
       </c>
       <c r="C75" s="0">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D75" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76">
@@ -5027,27 +5027,27 @@
         <v>1</v>
       </c>
       <c r="B76" s="0">
-        <v>994</v>
+        <v>739</v>
       </c>
       <c r="C76" s="0">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D76" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" s="0">
-        <v>726</v>
+        <v>312</v>
       </c>
       <c r="C77" s="0">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D77" s="0">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78">
@@ -5055,13 +5055,13 @@
         <v>1</v>
       </c>
       <c r="B78" s="0">
-        <v>211</v>
+        <v>836</v>
       </c>
       <c r="C78" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D78" s="0">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79">
@@ -5069,13 +5069,13 @@
         <v>2</v>
       </c>
       <c r="B79" s="0">
-        <v>696</v>
+        <v>739</v>
       </c>
       <c r="C79" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D79" s="0">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80">
@@ -5083,83 +5083,83 @@
         <v>1</v>
       </c>
       <c r="B80" s="0">
-        <v>879</v>
+        <v>312</v>
       </c>
       <c r="C80" s="0">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D80" s="0">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B81" s="0">
-        <v>926</v>
+        <v>836</v>
       </c>
       <c r="C81" s="0">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D81" s="0">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B82" s="0">
-        <v>841</v>
+        <v>739</v>
       </c>
       <c r="C82" s="0">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D82" s="0">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83" s="0">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="C83" s="0">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D83" s="0">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84" s="0">
-        <v>403</v>
+        <v>836</v>
       </c>
       <c r="C84" s="0">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D84" s="0">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B85" s="0">
-        <v>801</v>
+        <v>312</v>
       </c>
       <c r="C85" s="0">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D85" s="0">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
@@ -5167,55 +5167,55 @@
         <v>1</v>
       </c>
       <c r="B86" s="0">
-        <v>841</v>
+        <v>312</v>
       </c>
       <c r="C86" s="0">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D86" s="0">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B87" s="0">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C87" s="0">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D87" s="0">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B88" s="0">
-        <v>702</v>
+        <v>912</v>
       </c>
       <c r="C88" s="0">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D88" s="0">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B89" s="0">
-        <v>124</v>
+        <v>710</v>
       </c>
       <c r="C89" s="0">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D89" s="0">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90">
@@ -5223,69 +5223,69 @@
         <v>1</v>
       </c>
       <c r="B90" s="0">
-        <v>175</v>
+        <v>710</v>
       </c>
       <c r="C90" s="0">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D90" s="0">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B91" s="0">
-        <v>219</v>
+        <v>912</v>
       </c>
       <c r="C91" s="0">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D91" s="0">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" s="0">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="C92" s="0">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D92" s="0">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B93" s="0">
-        <v>793</v>
+        <v>912</v>
       </c>
       <c r="C93" s="0">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D93" s="0">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B94" s="0">
-        <v>124</v>
+        <v>912</v>
       </c>
       <c r="C94" s="0">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D94" s="0">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95">
@@ -5293,41 +5293,41 @@
         <v>2</v>
       </c>
       <c r="B95" s="0">
-        <v>170</v>
+        <v>912</v>
       </c>
       <c r="C95" s="0">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D95" s="0">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B96" s="0">
-        <v>144</v>
+        <v>806</v>
       </c>
       <c r="C96" s="0">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D96" s="0">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B97" s="0">
-        <v>764</v>
+        <v>888</v>
       </c>
       <c r="C97" s="0">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D97" s="0">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98">
@@ -5335,69 +5335,69 @@
         <v>1</v>
       </c>
       <c r="B98" s="0">
-        <v>135</v>
+        <v>888</v>
       </c>
       <c r="C98" s="0">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D98" s="0">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B99" s="0">
-        <v>124</v>
+        <v>401</v>
       </c>
       <c r="C99" s="0">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D99" s="0">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B100" s="0">
-        <v>476</v>
+        <v>174</v>
       </c>
       <c r="C100" s="0">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="D100" s="0">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B101" s="0">
-        <v>165</v>
+        <v>818</v>
       </c>
       <c r="C101" s="0">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D101" s="0">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B102" s="0">
-        <v>724</v>
+        <v>7</v>
       </c>
       <c r="C102" s="0">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D102" s="0">
-        <v>27</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103">
@@ -5405,27 +5405,27 @@
         <v>1</v>
       </c>
       <c r="B103" s="0">
-        <v>694</v>
+        <v>452</v>
       </c>
       <c r="C103" s="0">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="D103" s="0">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B104" s="0">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="C104" s="0">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="D104" s="0">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105">
@@ -5433,13 +5433,13 @@
         <v>1</v>
       </c>
       <c r="B105" s="0">
-        <v>398</v>
+        <v>993</v>
       </c>
       <c r="C105" s="0">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="D105" s="0">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
@@ -5447,13 +5447,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="0">
-        <v>724</v>
+        <v>919</v>
       </c>
       <c r="C106" s="0">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="D106" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107">
@@ -5461,13 +5461,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="0">
-        <v>312</v>
+        <v>31</v>
       </c>
       <c r="C107" s="0">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="D107" s="0">
-        <v>31</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108">
@@ -5475,13 +5475,13 @@
         <v>1</v>
       </c>
       <c r="B108" s="0">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="C108" s="0">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D108" s="0">
-        <v>33</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109">
@@ -5489,55 +5489,55 @@
         <v>1</v>
       </c>
       <c r="B109" s="0">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="C109" s="0">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="D109" s="0">
-        <v>34</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110" s="0">
-        <v>724</v>
+        <v>239</v>
       </c>
       <c r="C110" s="0">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D110" s="0">
-        <v>34</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B111" s="0">
-        <v>739</v>
+        <v>694</v>
       </c>
       <c r="C111" s="0">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="D111" s="0">
-        <v>35</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B112" s="0">
-        <v>312</v>
+        <v>945</v>
       </c>
       <c r="C112" s="0">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="D112" s="0">
-        <v>37</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113">
@@ -5545,13 +5545,13 @@
         <v>2</v>
       </c>
       <c r="B113" s="0">
-        <v>739</v>
+        <v>708</v>
       </c>
       <c r="C113" s="0">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="D113" s="0">
-        <v>38</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
@@ -5559,13 +5559,13 @@
         <v>1</v>
       </c>
       <c r="B114" s="0">
-        <v>312</v>
+        <v>708</v>
       </c>
       <c r="C114" s="0">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="D114" s="0">
-        <v>40</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115">
@@ -5573,27 +5573,27 @@
         <v>1</v>
       </c>
       <c r="B115" s="0">
-        <v>739</v>
+        <v>708</v>
       </c>
       <c r="C115" s="0">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="D115" s="0">
-        <v>41</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B116" s="0">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="C116" s="0">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="D116" s="0">
-        <v>43</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117">
@@ -5601,13 +5601,13 @@
         <v>1</v>
       </c>
       <c r="B117" s="0">
-        <v>312</v>
+        <v>708</v>
       </c>
       <c r="C117" s="0">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="D117" s="0">
-        <v>44</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
@@ -5615,13 +5615,13 @@
         <v>1</v>
       </c>
       <c r="B118" s="0">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C118" s="0">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="D118" s="0">
-        <v>48</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
@@ -5632,38 +5632,38 @@
         <v>708</v>
       </c>
       <c r="C119" s="0">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="D119" s="0">
-        <v>51</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B120" s="0">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C120" s="0">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="D120" s="0">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B121" s="0">
-        <v>710</v>
+        <v>183</v>
       </c>
       <c r="C121" s="0">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="D121" s="0">
-        <v>54</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122">
@@ -5671,69 +5671,69 @@
         <v>1</v>
       </c>
       <c r="B122" s="0">
-        <v>167</v>
+        <v>424</v>
       </c>
       <c r="C122" s="0">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="D122" s="0">
-        <v>62</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123" s="0">
-        <v>178</v>
+        <v>424</v>
       </c>
       <c r="C123" s="0">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="D123" s="0">
-        <v>70</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124" s="0">
-        <v>806</v>
+        <v>424</v>
       </c>
       <c r="C124" s="0">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="D124" s="0">
-        <v>70</v>
+        <v>203</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125" s="0">
-        <v>178</v>
+        <v>424</v>
       </c>
       <c r="C125" s="0">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="D125" s="0">
-        <v>73</v>
+        <v>209</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B126" s="0">
-        <v>178</v>
+        <v>424</v>
       </c>
       <c r="C126" s="0">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="D126" s="0">
-        <v>76</v>
+        <v>215</v>
       </c>
     </row>
     <row r="127">
@@ -5741,97 +5741,97 @@
         <v>1</v>
       </c>
       <c r="B127" s="0">
-        <v>178</v>
+        <v>703</v>
       </c>
       <c r="C127" s="0">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="D127" s="0">
-        <v>78</v>
+        <v>297</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B128" s="0">
-        <v>401</v>
+        <v>703</v>
       </c>
       <c r="C128" s="0">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="D128" s="0">
-        <v>82</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B129" s="0">
-        <v>174</v>
+        <v>703</v>
       </c>
       <c r="C129" s="0">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="D129" s="0">
-        <v>84</v>
+        <v>309</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B130" s="0">
-        <v>818</v>
+        <v>703</v>
       </c>
       <c r="C130" s="0">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="D130" s="0">
-        <v>85</v>
+        <v>317</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131" s="0">
-        <v>7</v>
+        <v>703</v>
       </c>
       <c r="C131" s="0">
-        <v>86</v>
+        <v>325</v>
       </c>
       <c r="D131" s="0">
-        <v>89</v>
+        <v>327</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B132" s="0">
-        <v>452</v>
+        <v>677</v>
       </c>
       <c r="C132" s="0">
-        <v>96</v>
+        <v>331</v>
       </c>
       <c r="D132" s="0">
-        <v>98</v>
+        <v>336</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B133" s="0">
-        <v>260</v>
+        <v>703</v>
       </c>
       <c r="C133" s="0">
-        <v>95</v>
+        <v>335</v>
       </c>
       <c r="D133" s="0">
-        <v>99</v>
+        <v>337</v>
       </c>
     </row>
     <row r="134">
@@ -5839,13 +5839,13 @@
         <v>1</v>
       </c>
       <c r="B134" s="0">
-        <v>796</v>
+        <v>677</v>
       </c>
       <c r="C134" s="0">
-        <v>101</v>
+        <v>336</v>
       </c>
       <c r="D134" s="0">
-        <v>103</v>
+        <v>338</v>
       </c>
     </row>
     <row r="135">
@@ -5853,13 +5853,13 @@
         <v>1</v>
       </c>
       <c r="B135" s="0">
-        <v>919</v>
+        <v>677</v>
       </c>
       <c r="C135" s="0">
-        <v>102</v>
+        <v>338</v>
       </c>
       <c r="D135" s="0">
-        <v>104</v>
+        <v>340</v>
       </c>
     </row>
     <row r="136">
@@ -5867,13 +5867,13 @@
         <v>1</v>
       </c>
       <c r="B136" s="0">
-        <v>31</v>
+        <v>677</v>
       </c>
       <c r="C136" s="0">
-        <v>113</v>
+        <v>342</v>
       </c>
       <c r="D136" s="0">
-        <v>115</v>
+        <v>344</v>
       </c>
     </row>
     <row r="137">
@@ -5881,27 +5881,27 @@
         <v>1</v>
       </c>
       <c r="B137" s="0">
-        <v>31</v>
+        <v>703</v>
       </c>
       <c r="C137" s="0">
-        <v>121</v>
+        <v>349</v>
       </c>
       <c r="D137" s="0">
-        <v>123</v>
+        <v>351</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B138" s="0">
-        <v>239</v>
+        <v>403</v>
       </c>
       <c r="C138" s="0">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D138" s="0">
-        <v>128</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139">
@@ -5909,41 +5909,41 @@
         <v>1</v>
       </c>
       <c r="B139" s="0">
-        <v>239</v>
+        <v>461</v>
       </c>
       <c r="C139" s="0">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D139" s="0">
-        <v>135</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B140" s="0">
-        <v>694</v>
+        <v>461</v>
       </c>
       <c r="C140" s="0">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="D140" s="0">
-        <v>139</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" s="0">
-        <v>992</v>
+        <v>461</v>
       </c>
       <c r="C141" s="0">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="D141" s="0">
-        <v>142</v>
+        <v>59</v>
       </c>
     </row>
     <row r="142">
@@ -5951,27 +5951,27 @@
         <v>1</v>
       </c>
       <c r="B142" s="0">
-        <v>992</v>
+        <v>462</v>
       </c>
       <c r="C142" s="0">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="D142" s="0">
-        <v>144</v>
+        <v>59</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="0">
-        <v>708</v>
+        <v>462</v>
       </c>
       <c r="C143" s="0">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D143" s="0">
-        <v>153</v>
+        <v>62</v>
       </c>
     </row>
     <row r="144">
@@ -5979,13 +5979,13 @@
         <v>1</v>
       </c>
       <c r="B144" s="0">
-        <v>708</v>
+        <v>75</v>
       </c>
       <c r="C144" s="0">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="D144" s="0">
-        <v>156</v>
+        <v>64</v>
       </c>
     </row>
     <row r="145">
@@ -5993,27 +5993,27 @@
         <v>1</v>
       </c>
       <c r="B145" s="0">
-        <v>708</v>
+        <v>462</v>
       </c>
       <c r="C145" s="0">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="D145" s="0">
-        <v>158</v>
+        <v>65</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B146" s="0">
-        <v>308</v>
+        <v>544</v>
       </c>
       <c r="C146" s="0">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="D146" s="0">
-        <v>160</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147">
@@ -6021,41 +6021,41 @@
         <v>1</v>
       </c>
       <c r="B147" s="0">
-        <v>708</v>
+        <v>577</v>
       </c>
       <c r="C147" s="0">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="D147" s="0">
-        <v>161</v>
+        <v>73</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B148" s="0">
-        <v>708</v>
+        <v>130</v>
       </c>
       <c r="C148" s="0">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="D148" s="0">
-        <v>165</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B149" s="0">
-        <v>308</v>
+        <v>564</v>
       </c>
       <c r="C149" s="0">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="D149" s="0">
-        <v>167</v>
+        <v>93</v>
       </c>
     </row>
     <row r="150">
@@ -6063,27 +6063,27 @@
         <v>1</v>
       </c>
       <c r="B150" s="0">
-        <v>280</v>
+        <v>385</v>
       </c>
       <c r="C150" s="0">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="D150" s="0">
-        <v>171</v>
+        <v>108</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B151" s="0">
-        <v>708</v>
+        <v>114</v>
       </c>
       <c r="C151" s="0">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="D151" s="0">
-        <v>171</v>
+        <v>109</v>
       </c>
     </row>
     <row r="152">
@@ -6091,13 +6091,13 @@
         <v>1</v>
       </c>
       <c r="B152" s="0">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="C152" s="0">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="D152" s="0">
-        <v>195</v>
+        <v>112</v>
       </c>
     </row>
     <row r="153">
@@ -6105,13 +6105,13 @@
         <v>1</v>
       </c>
       <c r="B153" s="0">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="C153" s="0">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="D153" s="0">
-        <v>199</v>
+        <v>115</v>
       </c>
     </row>
     <row r="154">
@@ -6119,13 +6119,13 @@
         <v>1</v>
       </c>
       <c r="B154" s="0">
-        <v>828</v>
+        <v>82</v>
       </c>
       <c r="C154" s="0">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="D154" s="0">
-        <v>201</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155">
@@ -6133,13 +6133,13 @@
         <v>1</v>
       </c>
       <c r="B155" s="0">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="C155" s="0">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="D155" s="0">
-        <v>203</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156">
@@ -6147,13 +6147,13 @@
         <v>1</v>
       </c>
       <c r="B156" s="0">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="C156" s="0">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="D156" s="0">
-        <v>209</v>
+        <v>124</v>
       </c>
     </row>
     <row r="157">
@@ -6161,13 +6161,13 @@
         <v>1</v>
       </c>
       <c r="B157" s="0">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="C157" s="0">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="D157" s="0">
-        <v>215</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158">
@@ -6175,13 +6175,13 @@
         <v>1</v>
       </c>
       <c r="B158" s="0">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="C158" s="0">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="D158" s="0">
-        <v>232</v>
+        <v>135</v>
       </c>
     </row>
     <row r="159">
@@ -6189,13 +6189,13 @@
         <v>1</v>
       </c>
       <c r="B159" s="0">
-        <v>703</v>
+        <v>381</v>
       </c>
       <c r="C159" s="0">
-        <v>295</v>
+        <v>138</v>
       </c>
       <c r="D159" s="0">
-        <v>297</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160">
@@ -6203,13 +6203,13 @@
         <v>1</v>
       </c>
       <c r="B160" s="0">
-        <v>703</v>
+        <v>233</v>
       </c>
       <c r="C160" s="0">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="D160" s="0">
-        <v>302</v>
+        <v>143</v>
       </c>
     </row>
     <row r="161">
@@ -6217,13 +6217,13 @@
         <v>1</v>
       </c>
       <c r="B161" s="0">
-        <v>703</v>
+        <v>381</v>
       </c>
       <c r="C161" s="0">
-        <v>307</v>
+        <v>142</v>
       </c>
       <c r="D161" s="0">
-        <v>309</v>
+        <v>144</v>
       </c>
     </row>
     <row r="162">
@@ -6231,13 +6231,13 @@
         <v>1</v>
       </c>
       <c r="B162" s="0">
-        <v>703</v>
+        <v>233</v>
       </c>
       <c r="C162" s="0">
-        <v>315</v>
+        <v>143</v>
       </c>
       <c r="D162" s="0">
-        <v>317</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163">
@@ -6245,27 +6245,27 @@
         <v>1</v>
       </c>
       <c r="B163" s="0">
-        <v>703</v>
+        <v>233</v>
       </c>
       <c r="C163" s="0">
-        <v>325</v>
+        <v>145</v>
       </c>
       <c r="D163" s="0">
-        <v>327</v>
+        <v>147</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B164" s="0">
-        <v>677</v>
+        <v>381</v>
       </c>
       <c r="C164" s="0">
-        <v>331</v>
+        <v>147</v>
       </c>
       <c r="D164" s="0">
-        <v>336</v>
+        <v>149</v>
       </c>
     </row>
     <row r="165">
@@ -6273,13 +6273,13 @@
         <v>1</v>
       </c>
       <c r="B165" s="0">
-        <v>703</v>
+        <v>233</v>
       </c>
       <c r="C165" s="0">
-        <v>335</v>
+        <v>148</v>
       </c>
       <c r="D165" s="0">
-        <v>337</v>
+        <v>150</v>
       </c>
     </row>
     <row r="166">
@@ -6287,13 +6287,13 @@
         <v>1</v>
       </c>
       <c r="B166" s="0">
-        <v>677</v>
+        <v>233</v>
       </c>
       <c r="C166" s="0">
-        <v>336</v>
+        <v>151</v>
       </c>
       <c r="D166" s="0">
-        <v>338</v>
+        <v>153</v>
       </c>
     </row>
     <row r="167">
@@ -6301,13 +6301,13 @@
         <v>1</v>
       </c>
       <c r="B167" s="0">
-        <v>677</v>
+        <v>381</v>
       </c>
       <c r="C167" s="0">
-        <v>338</v>
+        <v>152</v>
       </c>
       <c r="D167" s="0">
-        <v>340</v>
+        <v>154</v>
       </c>
     </row>
     <row r="168">
@@ -6315,27 +6315,27 @@
         <v>1</v>
       </c>
       <c r="B168" s="0">
-        <v>677</v>
+        <v>233</v>
       </c>
       <c r="C168" s="0">
-        <v>342</v>
+        <v>154</v>
       </c>
       <c r="D168" s="0">
-        <v>344</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B169" s="0">
-        <v>703</v>
+        <v>569</v>
       </c>
       <c r="C169" s="0">
-        <v>349</v>
+        <v>162</v>
       </c>
       <c r="D169" s="0">
-        <v>351</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170">
@@ -6343,27 +6343,27 @@
         <v>1</v>
       </c>
       <c r="B170" s="0">
-        <v>235</v>
+        <v>641</v>
       </c>
       <c r="C170" s="0">
-        <v>437</v>
+        <v>167</v>
       </c>
       <c r="D170" s="0">
-        <v>439</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B171" s="0">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="C171" s="0">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="D171" s="0">
-        <v>13</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172">
@@ -6371,13 +6371,13 @@
         <v>1</v>
       </c>
       <c r="B172" s="0">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C172" s="0">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="D172" s="0">
-        <v>54</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173">
@@ -6385,13 +6385,13 @@
         <v>1</v>
       </c>
       <c r="B173" s="0">
-        <v>461</v>
+        <v>641</v>
       </c>
       <c r="C173" s="0">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="D173" s="0">
-        <v>56</v>
+        <v>176</v>
       </c>
     </row>
     <row r="174">
@@ -6399,13 +6399,13 @@
         <v>1</v>
       </c>
       <c r="B174" s="0">
-        <v>461</v>
+        <v>374</v>
       </c>
       <c r="C174" s="0">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="D174" s="0">
-        <v>59</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175">
@@ -6413,13 +6413,13 @@
         <v>1</v>
       </c>
       <c r="B175" s="0">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C175" s="0">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="D175" s="0">
-        <v>59</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176">
@@ -6427,13 +6427,13 @@
         <v>1</v>
       </c>
       <c r="B176" s="0">
-        <v>462</v>
+        <v>641</v>
       </c>
       <c r="C176" s="0">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D176" s="0">
-        <v>62</v>
+        <v>183</v>
       </c>
     </row>
     <row r="177">
@@ -6441,13 +6441,13 @@
         <v>1</v>
       </c>
       <c r="B177" s="0">
-        <v>75</v>
+        <v>374</v>
       </c>
       <c r="C177" s="0">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="D177" s="0">
-        <v>64</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178">
@@ -6455,27 +6455,27 @@
         <v>1</v>
       </c>
       <c r="B178" s="0">
-        <v>462</v>
+        <v>237</v>
       </c>
       <c r="C178" s="0">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="D178" s="0">
-        <v>65</v>
+        <v>187</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B179" s="0">
-        <v>544</v>
+        <v>467</v>
       </c>
       <c r="C179" s="0">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="D179" s="0">
-        <v>71</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180">
@@ -6483,27 +6483,27 @@
         <v>1</v>
       </c>
       <c r="B180" s="0">
-        <v>577</v>
+        <v>374</v>
       </c>
       <c r="C180" s="0">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="D180" s="0">
-        <v>73</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B181" s="0">
-        <v>130</v>
+        <v>467</v>
       </c>
       <c r="C181" s="0">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="D181" s="0">
-        <v>79</v>
+        <v>192</v>
       </c>
     </row>
     <row r="182">
@@ -6511,27 +6511,27 @@
         <v>1</v>
       </c>
       <c r="B182" s="0">
-        <v>492</v>
+        <v>641</v>
       </c>
       <c r="C182" s="0">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="D182" s="0">
-        <v>87</v>
+        <v>192</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B183" s="0">
-        <v>564</v>
+        <v>307</v>
       </c>
       <c r="C183" s="0">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="D183" s="0">
-        <v>93</v>
+        <v>193</v>
       </c>
     </row>
     <row r="184">
@@ -6539,41 +6539,41 @@
         <v>1</v>
       </c>
       <c r="B184" s="0">
-        <v>385</v>
+        <v>467</v>
       </c>
       <c r="C184" s="0">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="D184" s="0">
-        <v>108</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B185" s="0">
-        <v>114</v>
+        <v>467</v>
       </c>
       <c r="C185" s="0">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="D185" s="0">
-        <v>109</v>
+        <v>202</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B186" s="0">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C186" s="0">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="D186" s="0">
-        <v>112</v>
+        <v>205</v>
       </c>
     </row>
     <row r="187">
@@ -6581,13 +6581,13 @@
         <v>1</v>
       </c>
       <c r="B187" s="0">
-        <v>385</v>
+        <v>467</v>
       </c>
       <c r="C187" s="0">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="D187" s="0">
-        <v>116</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188">
@@ -6595,13 +6595,13 @@
         <v>1</v>
       </c>
       <c r="B188" s="0">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="C188" s="0">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="D188" s="0">
-        <v>119</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189">
@@ -6609,13 +6609,13 @@
         <v>1</v>
       </c>
       <c r="B189" s="0">
-        <v>385</v>
+        <v>665</v>
       </c>
       <c r="C189" s="0">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="D189" s="0">
-        <v>120</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190">
@@ -6623,13 +6623,13 @@
         <v>1</v>
       </c>
       <c r="B190" s="0">
-        <v>385</v>
+        <v>467</v>
       </c>
       <c r="C190" s="0">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="D190" s="0">
-        <v>125</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191">
@@ -6637,13 +6637,13 @@
         <v>1</v>
       </c>
       <c r="B191" s="0">
-        <v>381</v>
+        <v>467</v>
       </c>
       <c r="C191" s="0">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="D191" s="0">
-        <v>131</v>
+        <v>215</v>
       </c>
     </row>
     <row r="192">
@@ -6651,13 +6651,13 @@
         <v>1</v>
       </c>
       <c r="B192" s="0">
-        <v>381</v>
+        <v>645</v>
       </c>
       <c r="C192" s="0">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="D192" s="0">
-        <v>135</v>
+        <v>216</v>
       </c>
     </row>
     <row r="193">
@@ -6665,13 +6665,13 @@
         <v>1</v>
       </c>
       <c r="B193" s="0">
-        <v>381</v>
+        <v>665</v>
       </c>
       <c r="C193" s="0">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="D193" s="0">
-        <v>140</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194">
@@ -6679,13 +6679,13 @@
         <v>1</v>
       </c>
       <c r="B194" s="0">
-        <v>139</v>
+        <v>467</v>
       </c>
       <c r="C194" s="0">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="D194" s="0">
-        <v>143</v>
+        <v>220</v>
       </c>
     </row>
     <row r="195">
@@ -6693,13 +6693,13 @@
         <v>1</v>
       </c>
       <c r="B195" s="0">
-        <v>381</v>
+        <v>307</v>
       </c>
       <c r="C195" s="0">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="D195" s="0">
-        <v>144</v>
+        <v>221</v>
       </c>
     </row>
     <row r="196">
@@ -6707,13 +6707,13 @@
         <v>1</v>
       </c>
       <c r="B196" s="0">
-        <v>381</v>
+        <v>645</v>
       </c>
       <c r="C196" s="0">
-        <v>147</v>
+        <v>221</v>
       </c>
       <c r="D196" s="0">
-        <v>149</v>
+        <v>223</v>
       </c>
     </row>
     <row r="197">
@@ -6721,27 +6721,27 @@
         <v>1</v>
       </c>
       <c r="B197" s="0">
-        <v>381</v>
+        <v>467</v>
       </c>
       <c r="C197" s="0">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="D197" s="0">
-        <v>154</v>
+        <v>224</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B198" s="0">
-        <v>569</v>
+        <v>665</v>
       </c>
       <c r="C198" s="0">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="D198" s="0">
-        <v>167</v>
+        <v>225</v>
       </c>
     </row>
     <row r="199">
@@ -6749,13 +6749,13 @@
         <v>1</v>
       </c>
       <c r="B199" s="0">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C199" s="0">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="D199" s="0">
-        <v>169</v>
+        <v>226</v>
       </c>
     </row>
     <row r="200">
@@ -6763,13 +6763,13 @@
         <v>1</v>
       </c>
       <c r="B200" s="0">
-        <v>374</v>
+        <v>467</v>
       </c>
       <c r="C200" s="0">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="D200" s="0">
-        <v>170</v>
+        <v>230</v>
       </c>
     </row>
     <row r="201">
@@ -6777,13 +6777,13 @@
         <v>1</v>
       </c>
       <c r="B201" s="0">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C201" s="0">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="D201" s="0">
-        <v>176</v>
+        <v>231</v>
       </c>
     </row>
     <row r="202">
@@ -6791,13 +6791,13 @@
         <v>1</v>
       </c>
       <c r="B202" s="0">
-        <v>374</v>
+        <v>665</v>
       </c>
       <c r="C202" s="0">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="D202" s="0">
-        <v>177</v>
+        <v>233</v>
       </c>
     </row>
     <row r="203">
@@ -6805,13 +6805,13 @@
         <v>1</v>
       </c>
       <c r="B203" s="0">
-        <v>467</v>
+        <v>307</v>
       </c>
       <c r="C203" s="0">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="D203" s="0">
-        <v>180</v>
+        <v>234</v>
       </c>
     </row>
     <row r="204">
@@ -6819,13 +6819,13 @@
         <v>1</v>
       </c>
       <c r="B204" s="0">
-        <v>374</v>
+        <v>675</v>
       </c>
       <c r="C204" s="0">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="D204" s="0">
-        <v>183</v>
+        <v>237</v>
       </c>
     </row>
     <row r="205">
@@ -6833,13 +6833,13 @@
         <v>1</v>
       </c>
       <c r="B205" s="0">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C205" s="0">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="D205" s="0">
-        <v>183</v>
+        <v>239</v>
       </c>
     </row>
     <row r="206">
@@ -6847,13 +6847,13 @@
         <v>1</v>
       </c>
       <c r="B206" s="0">
-        <v>467</v>
+        <v>665</v>
       </c>
       <c r="C206" s="0">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="D206" s="0">
-        <v>184</v>
+        <v>241</v>
       </c>
     </row>
     <row r="207">
@@ -6861,13 +6861,13 @@
         <v>1</v>
       </c>
       <c r="B207" s="0">
-        <v>237</v>
+        <v>645</v>
       </c>
       <c r="C207" s="0">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="D207" s="0">
-        <v>187</v>
+        <v>246</v>
       </c>
     </row>
     <row r="208">
@@ -6875,13 +6875,13 @@
         <v>1</v>
       </c>
       <c r="B208" s="0">
-        <v>374</v>
+        <v>675</v>
       </c>
       <c r="C208" s="0">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="D208" s="0">
-        <v>189</v>
+        <v>246</v>
       </c>
     </row>
     <row r="209">
@@ -6889,27 +6889,27 @@
         <v>1</v>
       </c>
       <c r="B209" s="0">
-        <v>467</v>
+        <v>307</v>
       </c>
       <c r="C209" s="0">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="D209" s="0">
-        <v>189</v>
+        <v>248</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B210" s="0">
-        <v>641</v>
+        <v>374</v>
       </c>
       <c r="C210" s="0">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="D210" s="0">
-        <v>192</v>
+        <v>250</v>
       </c>
     </row>
     <row r="211">
@@ -6917,13 +6917,13 @@
         <v>1</v>
       </c>
       <c r="B211" s="0">
-        <v>467</v>
+        <v>665</v>
       </c>
       <c r="C211" s="0">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="D211" s="0">
-        <v>194</v>
+        <v>250</v>
       </c>
     </row>
     <row r="212">
@@ -6931,13 +6931,13 @@
         <v>1</v>
       </c>
       <c r="B212" s="0">
-        <v>307</v>
+        <v>537</v>
       </c>
       <c r="C212" s="0">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="D212" s="0">
-        <v>195</v>
+        <v>254</v>
       </c>
     </row>
     <row r="213">
@@ -6945,13 +6945,13 @@
         <v>1</v>
       </c>
       <c r="B213" s="0">
-        <v>374</v>
+        <v>645</v>
       </c>
       <c r="C213" s="0">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="D213" s="0">
-        <v>195</v>
+        <v>254</v>
       </c>
     </row>
     <row r="214">
@@ -6959,13 +6959,13 @@
         <v>1</v>
       </c>
       <c r="B214" s="0">
-        <v>467</v>
+        <v>675</v>
       </c>
       <c r="C214" s="0">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="D214" s="0">
-        <v>199</v>
+        <v>257</v>
       </c>
     </row>
     <row r="215">
@@ -6973,13 +6973,13 @@
         <v>1</v>
       </c>
       <c r="B215" s="0">
-        <v>374</v>
+        <v>537</v>
       </c>
       <c r="C215" s="0">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="D215" s="0">
-        <v>203</v>
+        <v>258</v>
       </c>
     </row>
     <row r="216">
@@ -6987,41 +6987,41 @@
         <v>1</v>
       </c>
       <c r="B216" s="0">
-        <v>467</v>
+        <v>307</v>
       </c>
       <c r="C216" s="0">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="D216" s="0">
-        <v>203</v>
+        <v>261</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B217" s="0">
-        <v>392</v>
+        <v>645</v>
       </c>
       <c r="C217" s="0">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="D217" s="0">
-        <v>205</v>
+        <v>261</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B218" s="0">
-        <v>307</v>
+        <v>530</v>
       </c>
       <c r="C218" s="0">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="D218" s="0">
-        <v>208</v>
+        <v>262</v>
       </c>
     </row>
     <row r="219">
@@ -7029,13 +7029,13 @@
         <v>1</v>
       </c>
       <c r="B219" s="0">
-        <v>467</v>
+        <v>645</v>
       </c>
       <c r="C219" s="0">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="D219" s="0">
-        <v>208</v>
+        <v>270</v>
       </c>
     </row>
     <row r="220">
@@ -7043,13 +7043,13 @@
         <v>1</v>
       </c>
       <c r="B220" s="0">
-        <v>665</v>
+        <v>455</v>
       </c>
       <c r="C220" s="0">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="D220" s="0">
-        <v>210</v>
+        <v>273</v>
       </c>
     </row>
     <row r="221">
@@ -7057,13 +7057,13 @@
         <v>1</v>
       </c>
       <c r="B221" s="0">
-        <v>467</v>
+        <v>307</v>
       </c>
       <c r="C221" s="0">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="D221" s="0">
-        <v>212</v>
+        <v>275</v>
       </c>
     </row>
     <row r="222">
@@ -7071,13 +7071,13 @@
         <v>1</v>
       </c>
       <c r="B222" s="0">
-        <v>645</v>
+        <v>455</v>
       </c>
       <c r="C222" s="0">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="D222" s="0">
-        <v>216</v>
+        <v>276</v>
       </c>
     </row>
     <row r="223">
@@ -7085,13 +7085,13 @@
         <v>1</v>
       </c>
       <c r="B223" s="0">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C223" s="0">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="D223" s="0">
-        <v>217</v>
+        <v>278</v>
       </c>
     </row>
     <row r="224">
@@ -7099,13 +7099,13 @@
         <v>1</v>
       </c>
       <c r="B224" s="0">
-        <v>665</v>
+        <v>443</v>
       </c>
       <c r="C224" s="0">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="D224" s="0">
-        <v>218</v>
+        <v>279</v>
       </c>
     </row>
     <row r="225">
@@ -7113,13 +7113,13 @@
         <v>1</v>
       </c>
       <c r="B225" s="0">
-        <v>467</v>
+        <v>645</v>
       </c>
       <c r="C225" s="0">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="D225" s="0">
-        <v>221</v>
+        <v>279</v>
       </c>
     </row>
     <row r="226">
@@ -7127,27 +7127,27 @@
         <v>1</v>
       </c>
       <c r="B226" s="0">
-        <v>307</v>
+        <v>455</v>
       </c>
       <c r="C226" s="0">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="D226" s="0">
-        <v>222</v>
+        <v>280</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B227" s="0">
-        <v>645</v>
+        <v>531</v>
       </c>
       <c r="C227" s="0">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="D227" s="0">
-        <v>223</v>
+        <v>286</v>
       </c>
     </row>
     <row r="228">
@@ -7155,13 +7155,13 @@
         <v>1</v>
       </c>
       <c r="B228" s="0">
-        <v>467</v>
+        <v>307</v>
       </c>
       <c r="C228" s="0">
-        <v>223</v>
+        <v>287</v>
       </c>
       <c r="D228" s="0">
-        <v>225</v>
+        <v>289</v>
       </c>
     </row>
     <row r="229">
@@ -7169,13 +7169,13 @@
         <v>1</v>
       </c>
       <c r="B229" s="0">
-        <v>665</v>
+        <v>493</v>
       </c>
       <c r="C229" s="0">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="D229" s="0">
-        <v>225</v>
+        <v>294</v>
       </c>
     </row>
     <row r="230">
@@ -7183,13 +7183,13 @@
         <v>1</v>
       </c>
       <c r="B230" s="0">
-        <v>675</v>
+        <v>603</v>
       </c>
       <c r="C230" s="0">
-        <v>226</v>
+        <v>337</v>
       </c>
       <c r="D230" s="0">
-        <v>228</v>
+        <v>339</v>
       </c>
     </row>
     <row r="231">
@@ -7197,13 +7197,13 @@
         <v>1</v>
       </c>
       <c r="B231" s="0">
-        <v>467</v>
+        <v>545</v>
       </c>
       <c r="C231" s="0">
-        <v>228</v>
+        <v>362</v>
       </c>
       <c r="D231" s="0">
-        <v>230</v>
+        <v>364</v>
       </c>
     </row>
     <row r="232">
@@ -7211,13 +7211,13 @@
         <v>1</v>
       </c>
       <c r="B232" s="0">
-        <v>645</v>
+        <v>545</v>
       </c>
       <c r="C232" s="0">
-        <v>229</v>
+        <v>369</v>
       </c>
       <c r="D232" s="0">
-        <v>231</v>
+        <v>371</v>
       </c>
     </row>
     <row r="233">
@@ -7225,13 +7225,13 @@
         <v>1</v>
       </c>
       <c r="B233" s="0">
-        <v>665</v>
+        <v>545</v>
       </c>
       <c r="C233" s="0">
-        <v>231</v>
+        <v>376</v>
       </c>
       <c r="D233" s="0">
-        <v>233</v>
+        <v>378</v>
       </c>
     </row>
     <row r="234">
@@ -7239,13 +7239,13 @@
         <v>1</v>
       </c>
       <c r="B234" s="0">
-        <v>307</v>
+        <v>545</v>
       </c>
       <c r="C234" s="0">
-        <v>233</v>
+        <v>382</v>
       </c>
       <c r="D234" s="0">
-        <v>235</v>
+        <v>384</v>
       </c>
     </row>
     <row r="235">
@@ -7253,13 +7253,13 @@
         <v>1</v>
       </c>
       <c r="B235" s="0">
-        <v>675</v>
+        <v>545</v>
       </c>
       <c r="C235" s="0">
-        <v>234</v>
+        <v>387</v>
       </c>
       <c r="D235" s="0">
-        <v>236</v>
+        <v>389</v>
       </c>
     </row>
     <row r="236">
@@ -7267,13 +7267,13 @@
         <v>1</v>
       </c>
       <c r="B236" s="0">
-        <v>635</v>
+        <v>545</v>
       </c>
       <c r="C236" s="0">
-        <v>235</v>
+        <v>393</v>
       </c>
       <c r="D236" s="0">
-        <v>237</v>
+        <v>395</v>
       </c>
     </row>
     <row r="237">
@@ -7281,13 +7281,13 @@
         <v>1</v>
       </c>
       <c r="B237" s="0">
-        <v>638</v>
+        <v>545</v>
       </c>
       <c r="C237" s="0">
-        <v>235</v>
+        <v>397</v>
       </c>
       <c r="D237" s="0">
-        <v>237</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -7295,13 +7295,13 @@
         <v>1</v>
       </c>
       <c r="B238" s="0">
-        <v>645</v>
+        <v>545</v>
       </c>
       <c r="C238" s="0">
-        <v>237</v>
+        <v>402</v>
       </c>
       <c r="D238" s="0">
-        <v>239</v>
+        <v>404</v>
       </c>
     </row>
     <row r="239">
@@ -7309,13 +7309,13 @@
         <v>1</v>
       </c>
       <c r="B239" s="0">
-        <v>660</v>
+        <v>545</v>
       </c>
       <c r="C239" s="0">
-        <v>237</v>
+        <v>406</v>
       </c>
       <c r="D239" s="0">
-        <v>239</v>
+        <v>408</v>
       </c>
     </row>
     <row r="240">
@@ -7323,13 +7323,13 @@
         <v>1</v>
       </c>
       <c r="B240" s="0">
-        <v>493</v>
+        <v>545</v>
       </c>
       <c r="C240" s="0">
-        <v>238</v>
+        <v>410</v>
       </c>
       <c r="D240" s="0">
-        <v>240</v>
+        <v>412</v>
       </c>
     </row>
     <row r="241">
@@ -7337,13 +7337,13 @@
         <v>1</v>
       </c>
       <c r="B241" s="0">
-        <v>665</v>
+        <v>545</v>
       </c>
       <c r="C241" s="0">
-        <v>239</v>
+        <v>414</v>
       </c>
       <c r="D241" s="0">
-        <v>241</v>
+        <v>416</v>
       </c>
     </row>
     <row r="242">
@@ -7351,13 +7351,13 @@
         <v>1</v>
       </c>
       <c r="B242" s="0">
-        <v>675</v>
+        <v>356</v>
       </c>
       <c r="C242" s="0">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="D242" s="0">
-        <v>244</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -7365,13 +7365,13 @@
         <v>1</v>
       </c>
       <c r="B243" s="0">
-        <v>645</v>
+        <v>572</v>
       </c>
       <c r="C243" s="0">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="D243" s="0">
-        <v>246</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -7379,41 +7379,41 @@
         <v>1</v>
       </c>
       <c r="B244" s="0">
-        <v>307</v>
+        <v>669</v>
       </c>
       <c r="C244" s="0">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="D244" s="0">
-        <v>248</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
+        <v>1</v>
+      </c>
+      <c r="B245" s="0">
+        <v>116</v>
+      </c>
+      <c r="C245" s="0">
+        <v>1</v>
+      </c>
+      <c r="D245" s="0">
         <v>3</v>
-      </c>
-      <c r="B245" s="0">
-        <v>374</v>
-      </c>
-      <c r="C245" s="0">
-        <v>246</v>
-      </c>
-      <c r="D245" s="0">
-        <v>250</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B246" s="0">
-        <v>665</v>
+        <v>533</v>
       </c>
       <c r="C246" s="0">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="D246" s="0">
-        <v>250</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -7421,13 +7421,13 @@
         <v>1</v>
       </c>
       <c r="B247" s="0">
-        <v>675</v>
+        <v>557</v>
       </c>
       <c r="C247" s="0">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D247" s="0">
-        <v>252</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248">
@@ -7435,97 +7435,97 @@
         <v>1</v>
       </c>
       <c r="B248" s="0">
-        <v>184</v>
+        <v>591</v>
       </c>
       <c r="C248" s="0">
-        <v>252</v>
+        <v>2</v>
       </c>
       <c r="D248" s="0">
-        <v>254</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B249" s="0">
-        <v>537</v>
+        <v>498</v>
       </c>
       <c r="C249" s="0">
-        <v>252</v>
+        <v>2</v>
       </c>
       <c r="D249" s="0">
-        <v>254</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B250" s="0">
-        <v>645</v>
+        <v>201</v>
       </c>
       <c r="C250" s="0">
-        <v>252</v>
+        <v>2</v>
       </c>
       <c r="D250" s="0">
-        <v>254</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B251" s="0">
-        <v>537</v>
+        <v>673</v>
       </c>
       <c r="C251" s="0">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="D251" s="0">
-        <v>258</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B252" s="0">
-        <v>675</v>
+        <v>17</v>
       </c>
       <c r="C252" s="0">
-        <v>257</v>
+        <v>3</v>
       </c>
       <c r="D252" s="0">
-        <v>259</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B253" s="0">
-        <v>307</v>
+        <v>91</v>
       </c>
       <c r="C253" s="0">
-        <v>259</v>
+        <v>4</v>
       </c>
       <c r="D253" s="0">
-        <v>261</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B254" s="0">
-        <v>645</v>
+        <v>690</v>
       </c>
       <c r="C254" s="0">
-        <v>259</v>
+        <v>3</v>
       </c>
       <c r="D254" s="0">
-        <v>261</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255">
@@ -7533,27 +7533,27 @@
         <v>2</v>
       </c>
       <c r="B255" s="0">
-        <v>530</v>
+        <v>61</v>
       </c>
       <c r="C255" s="0">
-        <v>259</v>
+        <v>5</v>
       </c>
       <c r="D255" s="0">
-        <v>262</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B256" s="0">
-        <v>675</v>
+        <v>96</v>
       </c>
       <c r="C256" s="0">
-        <v>265</v>
+        <v>2</v>
       </c>
       <c r="D256" s="0">
-        <v>267</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257">
@@ -7561,41 +7561,41 @@
         <v>1</v>
       </c>
       <c r="B257" s="0">
-        <v>645</v>
+        <v>400</v>
       </c>
       <c r="C257" s="0">
-        <v>268</v>
+        <v>6</v>
       </c>
       <c r="D257" s="0">
-        <v>270</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B258" s="0">
-        <v>307</v>
+        <v>482</v>
       </c>
       <c r="C258" s="0">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="D258" s="0">
-        <v>274</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B259" s="0">
-        <v>455</v>
+        <v>551</v>
       </c>
       <c r="C259" s="0">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="D259" s="0">
-        <v>274</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260">
@@ -7603,27 +7603,27 @@
         <v>1</v>
       </c>
       <c r="B260" s="0">
-        <v>675</v>
+        <v>599</v>
       </c>
       <c r="C260" s="0">
-        <v>273</v>
+        <v>6</v>
       </c>
       <c r="D260" s="0">
-        <v>275</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B261" s="0">
-        <v>455</v>
+        <v>604</v>
       </c>
       <c r="C261" s="0">
-        <v>274</v>
+        <v>5</v>
       </c>
       <c r="D261" s="0">
-        <v>276</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262">
@@ -7631,55 +7631,55 @@
         <v>2</v>
       </c>
       <c r="B262" s="0">
-        <v>455</v>
+        <v>573</v>
       </c>
       <c r="C262" s="0">
-        <v>276</v>
+        <v>6</v>
       </c>
       <c r="D262" s="0">
-        <v>279</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B263" s="0">
-        <v>645</v>
+        <v>557</v>
       </c>
       <c r="C263" s="0">
-        <v>277</v>
+        <v>8</v>
       </c>
       <c r="D263" s="0">
-        <v>279</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B264" s="0">
-        <v>794</v>
+        <v>102</v>
       </c>
       <c r="C264" s="0">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="D264" s="0">
-        <v>281</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B265" s="0">
-        <v>675</v>
+        <v>624</v>
       </c>
       <c r="C265" s="0">
-        <v>281</v>
+        <v>8</v>
       </c>
       <c r="D265" s="0">
-        <v>283</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266">
@@ -7687,41 +7687,41 @@
         <v>1</v>
       </c>
       <c r="B266" s="0">
-        <v>307</v>
+        <v>418</v>
       </c>
       <c r="C266" s="0">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="D266" s="0">
-        <v>287</v>
+        <v>16</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B267" s="0">
-        <v>675</v>
+        <v>389</v>
       </c>
       <c r="C267" s="0">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="D267" s="0">
-        <v>292</v>
+        <v>19</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B268" s="0">
-        <v>493</v>
+        <v>629</v>
       </c>
       <c r="C268" s="0">
-        <v>291</v>
+        <v>14</v>
       </c>
       <c r="D268" s="0">
-        <v>293</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269">
@@ -7729,69 +7729,69 @@
         <v>1</v>
       </c>
       <c r="B269" s="0">
-        <v>493</v>
+        <v>313</v>
       </c>
       <c r="C269" s="0">
-        <v>293</v>
+        <v>19</v>
       </c>
       <c r="D269" s="0">
-        <v>295</v>
+        <v>21</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B270" s="0">
-        <v>165</v>
+        <v>527</v>
       </c>
       <c r="C270" s="0">
-        <v>311</v>
+        <v>17</v>
       </c>
       <c r="D270" s="0">
-        <v>313</v>
+        <v>22</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B271" s="0">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C271" s="0">
-        <v>327</v>
+        <v>19</v>
       </c>
       <c r="D271" s="0">
-        <v>329</v>
+        <v>22</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B272" s="0">
-        <v>603</v>
+        <v>151</v>
       </c>
       <c r="C272" s="0">
-        <v>330</v>
+        <v>23</v>
       </c>
       <c r="D272" s="0">
-        <v>332</v>
+        <v>26</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B273" s="0">
-        <v>601</v>
+        <v>76</v>
       </c>
       <c r="C273" s="0">
-        <v>418</v>
+        <v>19</v>
       </c>
       <c r="D273" s="0">
-        <v>420</v>
+        <v>27</v>
       </c>
     </row>
     <row r="274">
@@ -7799,27 +7799,27 @@
         <v>1</v>
       </c>
       <c r="B274" s="0">
-        <v>306</v>
+        <v>151</v>
       </c>
       <c r="C274" s="0">
-        <v>455</v>
+        <v>26</v>
       </c>
       <c r="D274" s="0">
-        <v>457</v>
+        <v>28</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B275" s="0">
-        <v>361</v>
+        <v>298</v>
       </c>
       <c r="C275" s="0">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D275" s="0">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="276">
@@ -7827,13 +7827,13 @@
         <v>1</v>
       </c>
       <c r="B276" s="0">
-        <v>485</v>
+        <v>151</v>
       </c>
       <c r="C276" s="0">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D276" s="0">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="277">
@@ -7841,69 +7841,69 @@
         <v>1</v>
       </c>
       <c r="B277" s="0">
-        <v>572</v>
+        <v>151</v>
       </c>
       <c r="C277" s="0">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D277" s="0">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B278" s="0">
-        <v>669</v>
+        <v>719</v>
       </c>
       <c r="C278" s="0">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D278" s="0">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B279" s="0">
-        <v>116</v>
+        <v>478</v>
       </c>
       <c r="C279" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D279" s="0">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B280" s="0">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="C280" s="0">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D280" s="0">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B281" s="0">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C281" s="0">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D281" s="0">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="282">
@@ -7911,83 +7911,83 @@
         <v>3</v>
       </c>
       <c r="B282" s="0">
-        <v>201</v>
+        <v>342</v>
       </c>
       <c r="C282" s="0">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D282" s="0">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B283" s="0">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C283" s="0">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D283" s="0">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B284" s="0">
-        <v>17</v>
+        <v>420</v>
       </c>
       <c r="C284" s="0">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D284" s="0">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B285" s="0">
-        <v>91</v>
+        <v>511</v>
       </c>
       <c r="C285" s="0">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D285" s="0">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B286" s="0">
-        <v>690</v>
+        <v>630</v>
       </c>
       <c r="C286" s="0">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D286" s="0">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B287" s="0">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="C287" s="0">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="D287" s="0">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="288">
@@ -7995,41 +7995,41 @@
         <v>1</v>
       </c>
       <c r="B288" s="0">
-        <v>400</v>
+        <v>611</v>
       </c>
       <c r="C288" s="0">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D288" s="0">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B289" s="0">
-        <v>482</v>
+        <v>637</v>
       </c>
       <c r="C289" s="0">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D289" s="0">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B290" s="0">
-        <v>551</v>
+        <v>334</v>
       </c>
       <c r="C290" s="0">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="D290" s="0">
-        <v>8</v>
+        <v>146</v>
       </c>
     </row>
     <row r="291">
@@ -8037,83 +8037,83 @@
         <v>1</v>
       </c>
       <c r="B291" s="0">
-        <v>599</v>
+        <v>419</v>
       </c>
       <c r="C291" s="0">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="D291" s="0">
-        <v>8</v>
+        <v>155</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B292" s="0">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="C292" s="0">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="D292" s="0">
-        <v>9</v>
+        <v>162</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B293" s="0">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="C293" s="0">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D293" s="0">
-        <v>11</v>
+        <v>166</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B294" s="0">
-        <v>102</v>
+        <v>589</v>
       </c>
       <c r="C294" s="0">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="D294" s="0">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B295" s="0">
-        <v>355</v>
+        <v>589</v>
       </c>
       <c r="C295" s="0">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="D295" s="0">
-        <v>15</v>
+        <v>176</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B296" s="0">
-        <v>624</v>
+        <v>589</v>
       </c>
       <c r="C296" s="0">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="D296" s="0">
-        <v>15</v>
+        <v>182</v>
       </c>
     </row>
     <row r="297">
@@ -8121,13 +8121,13 @@
         <v>1</v>
       </c>
       <c r="B297" s="0">
-        <v>418</v>
+        <v>589</v>
       </c>
       <c r="C297" s="0">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="D297" s="0">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="298">
@@ -8135,55 +8135,55 @@
         <v>1</v>
       </c>
       <c r="B298" s="0">
-        <v>313</v>
+        <v>377</v>
       </c>
       <c r="C298" s="0">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D298" s="0">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B299" s="0">
-        <v>540</v>
+        <v>374</v>
       </c>
       <c r="C299" s="0">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D299" s="0">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B300" s="0">
-        <v>527</v>
+        <v>211</v>
       </c>
       <c r="C300" s="0">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D300" s="0">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B301" s="0">
-        <v>151</v>
+        <v>422</v>
       </c>
       <c r="C301" s="0">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="D301" s="0">
-        <v>26</v>
+        <v>165</v>
       </c>
     </row>
     <row r="302">
